--- a/Design/Excel/Localization.xlsx
+++ b/Design/Excel/Localization.xlsx
@@ -1,120 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/XW-APFS/Study/GitHub/GameDevelopmentKit/Design/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6A55E5-96F3-8646-8D33-D48BA8F95A81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{A92FCC87-3CCB-4551-AAAE-7C509C505A0D}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin_text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>ChineseTraditional</t>
   </si>
   <si>
     <t>原始值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>本地化值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>當地語系化值</t>
+  </si>
+  <si>
+    <t>原始的文本，仅提示用</t>
+  </si>
+  <si>
+    <t>本地化后的文本</t>
+  </si>
+  <si>
+    <t>當地語系化後的文本</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>asdfa2</t>
   </si>
   <si>
     <t>本地化名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>當地語系化名字</t>
   </si>
   <si>
     <t>test/a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始的文本，仅提示用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地化后的文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>xxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>本地化后 test/a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地化后 test/b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>當地語系化值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>當地語系化後的文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>當地語系化名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>當地語系化後 test/a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>當地語系化後 test/b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -122,19 +92,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>demo/1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试1</t>
   </si>
   <si>
+    <t>AAAtest1</t>
+  </si>
+  <si>
+    <t>測試1</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -142,28 +123,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>demo/2</t>
     </r>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>tAAAest2</t>
+  </si>
+  <si>
+    <t>測試2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <r>
       <t>/</t>
     </r>
     <r>
@@ -171,28 +154,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>demo/3</t>
     </r>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>teAAAst3</t>
+  </si>
+  <si>
+    <t>測試3</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <r>
       <t>/</t>
     </r>
     <r>
@@ -200,28 +185,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>demo/4</t>
     </r>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>teAAAst4</t>
+  </si>
+  <si>
+    <t>測試4</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <r>
       <t>/</t>
     </r>
     <r>
@@ -229,85 +216,40 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>demo/5</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>测试5</t>
   </si>
   <si>
-    <t>text_en</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>teAAAst5</t>
   </si>
   <si>
     <t>測試5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAAtest1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tAAAest2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>teAAAst3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>teAAAst4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>teAAAst5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>312f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -315,41 +257,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -357,9 +600,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -367,20 +852,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -462,26 +991,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -514,23 +1026,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,27 +1167,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350ECAEC-6119-4836-8E37-6CA3CE6798B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,103 +1197,101 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>222</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="1" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -811,57 +1299,237 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Design/Excel/Localization.xlsx
+++ b/Design/Excel/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1175,8 +1175,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1272,7 +1272,6 @@
       <c r="C6">
         <v>222</v>
       </c>
-      <c r="D6"/>
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -1359,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Design/Excel/Localization.xlsx
+++ b/Design/Excel/Localization.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>##</t>
   </si>
@@ -32,207 +31,991 @@
     <t>ChineseTraditional</t>
   </si>
   <si>
-    <t>原始值</t>
-  </si>
-  <si>
-    <t>本地化值</t>
-  </si>
-  <si>
-    <t>當地語系化值</t>
-  </si>
-  <si>
-    <t>原始的文本，仅提示用</t>
-  </si>
-  <si>
-    <t>本地化后的文本</t>
-  </si>
-  <si>
-    <t>當地語系化後的文本</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>asdfa2</t>
-  </si>
-  <si>
-    <t>本地化名字</t>
-  </si>
-  <si>
-    <t>當地語系化名字</t>
-  </si>
-  <si>
-    <t>test/a</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>本地化后 test/a</t>
-  </si>
-  <si>
-    <t>當地語系化後 test/a</t>
-  </si>
-  <si>
-    <t>當地語系化後 test/b</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Game.Name</t>
+  </si>
+  <si>
+    <t>星际力量</t>
+  </si>
+  <si>
+    <t>STAR FORCE</t>
+  </si>
+  <si>
+    <t>星際力量</t>
+  </si>
+  <si>
+    <t>게임 프레임워크</t>
+  </si>
+  <si>
+    <t>Game.Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演示程序</t>
+    </r>
+  </si>
+  <si>
+    <t>Game Framework Demo Program</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演示程式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>데모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+  </si>
+  <si>
+    <t>Game.Website</t>
+  </si>
+  <si>
+    <t>https://GameFramework.cn/</t>
+  </si>
+  <si>
+    <t>Game.Summary</t>
+  </si>
+  <si>
+    <r>
+      <t>这是一个使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>游戏框架制作的游戏演示项目，目的是对此游戏框架的使用方法做一些示范，供使用者参考。</t>
+    </r>
+  </si>
+  <si>
+    <t>This project is a demo game made with Game Framework. It's intended to demonstrate how this game framework should be used for developers' reference.</t>
+  </si>
+  <si>
+    <r>
+      <t>這是一個使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>demo/1</t>
-    </r>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>AAAtest1</t>
-  </si>
-  <si>
-    <t>測試1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>遊戲框架製作的遊戲演示專案，目的是對此遊戲框架的使用方法做一些示範，供使用者參考。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>이 데모는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>게임 시스템을 사용하여 만든 게임 데모 입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>demo/2</t>
-    </r>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>tAAAest2</t>
-  </si>
-  <si>
-    <t>測試2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>게임 시스템의 사용방법을 설명해 드리기 위해 예를 들어 만든 데모이기에 사용방법을 참조해 주시길 바랍니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Game.Introduction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> Unity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引擎的游戏框架，主要对游戏开发过程中常用模块进行了封装，很大程度地规范开发过程、加快开发速度并保证产品质量。</t>
+    </r>
+  </si>
+  <si>
+    <t>Game Framework is literally a game framework, based on Unity game engine. It encapsulates commonly used game modules during development, and, to a large degree, standardises the process, enhances the development speed and ensures the product quality.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是基於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>demo/3</t>
-    </r>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <t>teAAAst3</t>
-  </si>
-  <si>
-    <t>測試3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> Unity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引擎的遊戲框架，主要對遊戲開發過程中常用模組進行了封裝，很大程度地規範開發過程、加快開發速度並保證產品品質。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>유니티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>엔진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> Unity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>버전을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>이용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>demo/4</t>
-    </r>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <t>teAAAst4</t>
-  </si>
-  <si>
-    <t>測試4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>주로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>개발과정에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>사용하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>모듈을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>캡슐화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>과정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>규범화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>속도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>높이며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>게임의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>콜리티를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>보장해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>드릴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>demo/5</t>
-    </r>
-  </si>
-  <si>
-    <t>测试5</t>
-  </si>
-  <si>
-    <t>teAAAst5</t>
-  </si>
-  <si>
-    <t>測試5</t>
-  </si>
-  <si>
-    <t>312f</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Menu.StartButton</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>시작</t>
+  </si>
+  <si>
+    <t>Menu.SettingButton</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>設置</t>
+  </si>
+  <si>
+    <t>설정</t>
+  </si>
+  <si>
+    <t>Menu.AboutButton</t>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t>ABOUT</t>
+  </si>
+  <si>
+    <t>關於</t>
+  </si>
+  <si>
+    <t>정보</t>
+  </si>
+  <si>
+    <t>Menu.QuitButton</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>QUIT</t>
+  </si>
+  <si>
+    <t>아웃</t>
+  </si>
+  <si>
+    <t>Dialog.ConfirmButton</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>Dialog.CancelButton</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>Dialog.OtherButton</t>
+  </si>
+  <si>
+    <t>ForceUpdate.Title</t>
+  </si>
+  <si>
+    <t>强制更新</t>
+  </si>
+  <si>
+    <t>OUT OF DATE</t>
+  </si>
+  <si>
+    <t>強制更新</t>
+  </si>
+  <si>
+    <t>필수 업데이트</t>
+  </si>
+  <si>
+    <t>ForceUpdate.Message</t>
+  </si>
+  <si>
+    <t>当前游戏版本过旧，是否前往更新？</t>
+  </si>
+  <si>
+    <t>The current game version is out-of-date. Would you like to go for update now?</t>
+  </si>
+  <si>
+    <t>當前遊戲版本過舊，是否前往更新？</t>
+  </si>
+  <si>
+    <r>
+      <t>새로운 게임 버전이 있는데 업데이트를 원하십니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>ForceUpdate.UpdateButton</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>업데이트</t>
+  </si>
+  <si>
+    <t>ForceUpdate.QuitButton</t>
+  </si>
+  <si>
+    <t>AskQuitGame.Title</t>
+  </si>
+  <si>
+    <t>确认退出</t>
+  </si>
+  <si>
+    <t>CONFIRM TO QUIT</t>
+  </si>
+  <si>
+    <t>確認退出</t>
+  </si>
+  <si>
+    <t>아웃 확인</t>
+  </si>
+  <si>
+    <t>AskQuitGame.Message</t>
+  </si>
+  <si>
+    <t>是否确认退出游戏？</t>
+  </si>
+  <si>
+    <t>Are you sure to quit the game?</t>
+  </si>
+  <si>
+    <t>是否確認退出遊戲？</t>
+  </si>
+  <si>
+    <r>
+      <t>게임 로그아웃을 원하십니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Setting.Title</t>
+  </si>
+  <si>
+    <t>Setting.Music</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>音樂</t>
+  </si>
+  <si>
+    <t>음악</t>
+  </si>
+  <si>
+    <t>Setting.Sound</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Sound FX</t>
+  </si>
+  <si>
+    <t>효과음</t>
+  </si>
+  <si>
+    <t>Setting.UISound</t>
+  </si>
+  <si>
+    <t>界面音效</t>
+  </si>
+  <si>
+    <t>UI Sound FX</t>
+  </si>
+  <si>
+    <t>介面音效</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>효과음</t>
+    </r>
+  </si>
+  <si>
+    <t>Setting.Language</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>語言</t>
+  </si>
+  <si>
+    <t>언어</t>
+  </si>
+  <si>
+    <t>Setting.LanguageTips</t>
+  </si>
+  <si>
+    <t>更改语言需要重启游戏</t>
+  </si>
+  <si>
+    <t>Language change demands restarting.</t>
+  </si>
+  <si>
+    <t>更改語言需要重啟遊戲</t>
+  </si>
+  <si>
+    <t>사용언어를 바꾼후 리부팅이 필요 합니다</t>
   </si>
 </sst>
 </file>
@@ -245,10 +1028,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,6 +1186,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -706,10 +1510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,34 +1522,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,103 +1558,113 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1173,357 +1984,464 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="8.83333333333333" style="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="5" ht="15" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>222</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1" t="s">
-        <v>24</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1" t="s">
-        <v>28</v>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/Localization.xlsx
+++ b/Design/Excel/Localization.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="18135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>##</t>
   </si>
@@ -53,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Game Framework </t>
     </r>
     <r>
@@ -69,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Game Framework </t>
     </r>
     <r>
@@ -82,6 +107,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Game Framework </t>
     </r>
     <r>
@@ -120,6 +151,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一个使用</t>
     </r>
     <r>
@@ -145,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>這是一個使用</t>
     </r>
     <r>
@@ -167,6 +210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>이 데모는</t>
     </r>
     <r>
@@ -217,6 +266,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Game Framework </t>
     </r>
     <r>
@@ -250,6 +305,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Game Framework </t>
     </r>
     <r>
@@ -280,6 +341,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Game Framework </t>
     </r>
     <r>
@@ -866,6 +933,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>새로운 게임 버전이 있는데 업데이트를 원하십니까</t>
     </r>
     <r>
@@ -921,6 +994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>게임 로그아웃을 원하십니까</t>
     </r>
     <r>
@@ -976,6 +1055,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">UI </t>
     </r>
     <r>
@@ -1016,12 +1101,27 @@
   </si>
   <si>
     <t>사용언어를 바꾼후 리부팅이 필요 합니다</t>
+  </si>
+  <si>
+    <t>/apple</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>사과</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1043,34 +1143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1084,14 +1156,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,6 +1195,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1181,7 +1260,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,49 +1311,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,121 +1449,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,21 +1502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1449,6 +1534,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,159 +1607,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1668,52 +1765,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1984,10 +2081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2021,7 +2118,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2136,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2057,7 +2154,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2075,7 +2172,7 @@
       </c>
     </row>
     <row r="5" ht="15" spans="1:6">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2190,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -2111,7 +2208,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2129,7 +2226,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
@@ -2147,7 +2244,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2165,7 +2262,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2183,7 +2280,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
@@ -2201,7 +2298,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
@@ -2219,17 +2316,17 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
@@ -2247,7 +2344,7 @@
       </c>
     </row>
     <row r="15" ht="15" spans="1:6">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2265,7 +2362,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
@@ -2283,7 +2380,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>71</v>
       </c>
@@ -2301,7 +2398,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -2319,7 +2416,7 @@
       </c>
     </row>
     <row r="19" ht="15" spans="1:6">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -2337,7 +2434,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
@@ -2355,7 +2452,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
@@ -2373,7 +2470,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>88</v>
       </c>
@@ -2391,7 +2488,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
@@ -2409,7 +2506,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>97</v>
       </c>
@@ -2427,7 +2524,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>102</v>
       </c>
@@ -2442,6 +2539,23 @@
       </c>
       <c r="F25" s="2" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/Localization.xlsx
+++ b/Design/Excel/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18135"/>
+    <workbookView windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="118">
   <si>
     <t>##</t>
   </si>
@@ -1116,6 +1116,24 @@
   </si>
   <si>
     <t>사과</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>1test</t>
+  </si>
+  <si>
+    <t>1测试</t>
   </si>
 </sst>
 </file>
@@ -1288,17 +1306,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Courier New"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2081,20 +2099,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.83333333333333" style="1"/>
+    <col min="1" max="1" width="8.83035714285714" style="1"/>
     <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6696428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83333333333333" style="1"/>
+    <col min="6" max="16384" width="8.83035714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2135,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="17" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -2171,7 +2189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:6">
+    <row r="5" ht="17" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -2189,7 +2207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="17" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2343,7 +2361,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:6">
+    <row r="15" ht="17" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>62</v>
@@ -2415,7 +2433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:6">
+    <row r="19" ht="17" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>77</v>
@@ -2487,7 +2505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" ht="17" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>92</v>
@@ -2556,6 +2574,30 @@
       </c>
       <c r="F26" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
